--- a/lynda-data_analytics/Exercise Files/CH05/05_05/Begin/ResearchData_WorkingFile.xlsx
+++ b/lynda-data_analytics/Exercise Files/CH05/05_05/Begin/ResearchData_WorkingFile.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spnichol/Movies/Box Sync/Content Production/VIP Box/Learning Data Analytics Part 1 Foundations_2824225/2_Project/Exercise Files/Exercise Files/CH05/05_05/Begin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halpe\OneDrive\Coding\online_courses\lynda-data_analytics\Exercise Files\CH05\05_05\Begin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DB4283-8861-734B-BEEC-09916D549782}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02315BE-064D-47AC-8718-FF8BCDBB877E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{9F6CCC8E-826A-465C-BF20-2DA8D7351EE0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9F6CCC8E-826A-465C-BF20-2DA8D7351EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Info" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Data!$A$1:$U$481</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9141" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9183" uniqueCount="451">
   <si>
     <t>Respondent ID</t>
   </si>
@@ -1391,6 +1392,12 @@
   </si>
   <si>
     <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Original Fields</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1426,10 +1433,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1493,7 +1503,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1869,32 +1879,32 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="62.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="49.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="66.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11439191449</v>
       </c>
@@ -2024,7 +2034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>11439383910</v>
       </c>
@@ -2089,7 +2099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11439535466</v>
       </c>
@@ -2154,7 +2164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>11439544453</v>
       </c>
@@ -2219,7 +2229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>11439653368</v>
       </c>
@@ -2284,7 +2294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>11439666265</v>
       </c>
@@ -2349,7 +2359,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>11439706736</v>
       </c>
@@ -2414,7 +2424,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>11439784338</v>
       </c>
@@ -2479,7 +2489,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>11439856001</v>
       </c>
@@ -2544,7 +2554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11439860786</v>
       </c>
@@ -2609,7 +2619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11439863583</v>
       </c>
@@ -2674,7 +2684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11439879433</v>
       </c>
@@ -2739,7 +2749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>11439951440</v>
       </c>
@@ -2804,7 +2814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>11439984425</v>
       </c>
@@ -2869,7 +2879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>11440023859</v>
       </c>
@@ -2934,7 +2944,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>11440043550</v>
       </c>
@@ -2999,7 +3009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>11440096517</v>
       </c>
@@ -3064,7 +3074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>11440122088</v>
       </c>
@@ -3129,7 +3139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>11440136742</v>
       </c>
@@ -3194,7 +3204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>11440156234</v>
       </c>
@@ -3259,7 +3269,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>11440252360</v>
       </c>
@@ -3324,7 +3334,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>11440340595</v>
       </c>
@@ -3389,7 +3399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>11440402607</v>
       </c>
@@ -3454,7 +3464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>11440569505</v>
       </c>
@@ -3519,7 +3529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>11440582355</v>
       </c>
@@ -3584,7 +3594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>11440649184</v>
       </c>
@@ -3649,7 +3659,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>11440653658</v>
       </c>
@@ -3714,7 +3724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>11440671650</v>
       </c>
@@ -3779,7 +3789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>11440731159</v>
       </c>
@@ -3844,7 +3854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>11440843134</v>
       </c>
@@ -3909,7 +3919,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>11440859155</v>
       </c>
@@ -3974,7 +3984,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>11440863781</v>
       </c>
@@ -4039,7 +4049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>11441000319</v>
       </c>
@@ -4104,7 +4114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>11441730402</v>
       </c>
@@ -4169,7 +4179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>11441807124</v>
       </c>
@@ -4234,7 +4244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>11442081612</v>
       </c>
@@ -4299,7 +4309,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>11442085810</v>
       </c>
@@ -4364,7 +4374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>11442110634</v>
       </c>
@@ -4429,7 +4439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>11442113302</v>
       </c>
@@ -4494,7 +4504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>11442113382</v>
       </c>
@@ -4559,7 +4569,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>11442113462</v>
       </c>
@@ -4624,7 +4634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>11442115165</v>
       </c>
@@ -4689,7 +4699,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>11442128015</v>
       </c>
@@ -4754,7 +4764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>11442266192</v>
       </c>
@@ -4819,7 +4829,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>11442144612</v>
       </c>
@@ -4884,7 +4894,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>11442168582</v>
       </c>
@@ -4949,7 +4959,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>11442234103</v>
       </c>
@@ -5014,7 +5024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>11442249805</v>
       </c>
@@ -5079,7 +5089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>11442281523</v>
       </c>
@@ -5144,7 +5154,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>11442408416</v>
       </c>
@@ -5209,7 +5219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>11442434375</v>
       </c>
@@ -5274,7 +5284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>11442447025</v>
       </c>
@@ -5339,7 +5349,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>11442482273</v>
       </c>
@@ -5404,7 +5414,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>11442500967</v>
       </c>
@@ -5469,7 +5479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>11442543977</v>
       </c>
@@ -5534,7 +5544,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>11442550078</v>
       </c>
@@ -5599,7 +5609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>11442573469</v>
       </c>
@@ -5664,7 +5674,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>11442617237</v>
       </c>
@@ -5729,7 +5739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>11442678856</v>
       </c>
@@ -5794,7 +5804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>11442780508</v>
       </c>
@@ -5859,7 +5869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>11442822178</v>
       </c>
@@ -5924,7 +5934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>11442823145</v>
       </c>
@@ -5989,7 +5999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>11443193062</v>
       </c>
@@ -6054,7 +6064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>11443205950</v>
       </c>
@@ -6119,7 +6129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>11443206877</v>
       </c>
@@ -6184,7 +6194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>11443217977</v>
       </c>
@@ -6249,7 +6259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>11443466730</v>
       </c>
@@ -6314,7 +6324,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>11443517906</v>
       </c>
@@ -6379,7 +6389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>11443557979</v>
       </c>
@@ -6444,7 +6454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>11443603576</v>
       </c>
@@ -6509,7 +6519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>11443633226</v>
       </c>
@@ -6574,7 +6584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>11443658432</v>
       </c>
@@ -6639,7 +6649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>11443723980</v>
       </c>
@@ -6704,7 +6714,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>11443756848</v>
       </c>
@@ -6769,7 +6779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>11443931482</v>
       </c>
@@ -6834,7 +6844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>11443942871</v>
       </c>
@@ -6899,7 +6909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>11443958780</v>
       </c>
@@ -6964,7 +6974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>11443988489</v>
       </c>
@@ -7029,7 +7039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>11444238318</v>
       </c>
@@ -7094,7 +7104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>11444388026</v>
       </c>
@@ -7159,7 +7169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>11444905635</v>
       </c>
@@ -7224,7 +7234,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>11445115926</v>
       </c>
@@ -7289,7 +7299,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>11445446213</v>
       </c>
@@ -7354,7 +7364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>11445726106</v>
       </c>
@@ -7419,7 +7429,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>11445756626</v>
       </c>
@@ -7484,7 +7494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>11445755739</v>
       </c>
@@ -7549,7 +7559,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>11445760453</v>
       </c>
@@ -7614,7 +7624,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>11445760341</v>
       </c>
@@ -7679,7 +7689,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>11445774816</v>
       </c>
@@ -7744,7 +7754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>11445818283</v>
       </c>
@@ -7809,7 +7819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>11445834789</v>
       </c>
@@ -7874,7 +7884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>11445862478</v>
       </c>
@@ -7939,7 +7949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>11445884768</v>
       </c>
@@ -8004,7 +8014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>11445907458</v>
       </c>
@@ -8069,7 +8079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>11445906793</v>
       </c>
@@ -8134,7 +8144,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>11446012564</v>
       </c>
@@ -8199,7 +8209,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>11446048794</v>
       </c>
@@ -8264,7 +8274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>11446077776</v>
       </c>
@@ -8329,7 +8339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>11446118992</v>
       </c>
@@ -8394,7 +8404,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>11446163068</v>
       </c>
@@ -8459,7 +8469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>11446163938</v>
       </c>
@@ -8524,7 +8534,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>11446242539</v>
       </c>
@@ -8589,7 +8599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>11446277194</v>
       </c>
@@ -8654,7 +8664,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>11446391417</v>
       </c>
@@ -8719,7 +8729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>11446441134</v>
       </c>
@@ -8784,7 +8794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>11446563474</v>
       </c>
@@ -8849,7 +8859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>11446582142</v>
       </c>
@@ -8914,7 +8924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>11446672072</v>
       </c>
@@ -8979,7 +8989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>11447002678</v>
       </c>
@@ -9044,7 +9054,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>11447205695</v>
       </c>
@@ -9109,7 +9119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>11447215029</v>
       </c>
@@ -9174,7 +9184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>11447232896</v>
       </c>
@@ -9239,7 +9249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>11447786836</v>
       </c>
@@ -9304,7 +9314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>11448659278</v>
       </c>
@@ -9369,7 +9379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>11449430229</v>
       </c>
@@ -9434,7 +9444,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>11449423973</v>
       </c>
@@ -9499,7 +9509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>11449426676</v>
       </c>
@@ -9564,7 +9574,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>11449429587</v>
       </c>
@@ -9629,7 +9639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>11449702424</v>
       </c>
@@ -9694,7 +9704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>11452013718</v>
       </c>
@@ -9759,7 +9769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>11453125365</v>
       </c>
@@ -9824,7 +9834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>11456883918</v>
       </c>
@@ -9889,7 +9899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>11457188676</v>
       </c>
@@ -9954,7 +9964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>11459955942</v>
       </c>
@@ -10019,7 +10029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>11460436213</v>
       </c>
@@ -10084,7 +10094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>11462496395</v>
       </c>
@@ -10149,7 +10159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>11466171213</v>
       </c>
@@ -10214,7 +10224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>11466189554</v>
       </c>
@@ -10279,7 +10289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>11466182105</v>
       </c>
@@ -10344,7 +10354,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>11466192972</v>
       </c>
@@ -10409,7 +10419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>11466201655</v>
       </c>
@@ -10474,7 +10484,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>11466200311</v>
       </c>
@@ -10539,7 +10549,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>11466200463</v>
       </c>
@@ -10604,7 +10614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>11466217479</v>
       </c>
@@ -10669,7 +10679,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>11466219471</v>
       </c>
@@ -10734,7 +10744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>11466220877</v>
       </c>
@@ -10799,7 +10809,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>11466221464</v>
       </c>
@@ -10864,7 +10874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>11466223472</v>
       </c>
@@ -10929,7 +10939,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>11466225178</v>
       </c>
@@ -10994,7 +11004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>11466229299</v>
       </c>
@@ -11059,7 +11069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>11466229762</v>
       </c>
@@ -11124,7 +11134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>11466235986</v>
       </c>
@@ -11189,7 +11199,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>11466253471</v>
       </c>
@@ -11254,7 +11264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>11466256206</v>
       </c>
@@ -11319,7 +11329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>11466266130</v>
       </c>
@@ -11384,7 +11394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>11466269484</v>
       </c>
@@ -11449,7 +11459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>11466267289</v>
       </c>
@@ -11514,7 +11524,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>11466274635</v>
       </c>
@@ -11579,7 +11589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>11466278511</v>
       </c>
@@ -11644,7 +11654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>11466283060</v>
       </c>
@@ -11709,7 +11719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>11466289080</v>
       </c>
@@ -11774,7 +11784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>11466288537</v>
       </c>
@@ -11839,7 +11849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>11466298526</v>
       </c>
@@ -11904,7 +11914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>11466306351</v>
       </c>
@@ -11969,7 +11979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>11466306299</v>
       </c>
@@ -12034,7 +12044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>11466310340</v>
       </c>
@@ -12099,7 +12109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>11466329100</v>
       </c>
@@ -12164,7 +12174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>11466333140</v>
       </c>
@@ -12229,7 +12239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>11466333422</v>
       </c>
@@ -12294,7 +12304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>11466334572</v>
       </c>
@@ -12359,7 +12369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>11466338571</v>
       </c>
@@ -12424,7 +12434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>11466342363</v>
       </c>
@@ -12489,7 +12499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>11466344337</v>
       </c>
@@ -12554,7 +12564,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>11466349636</v>
       </c>
@@ -12619,7 +12629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>11466358498</v>
       </c>
@@ -12684,7 +12694,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>11466363036</v>
       </c>
@@ -12749,7 +12759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>11466361869</v>
       </c>
@@ -12814,7 +12824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>11466365025</v>
       </c>
@@ -12879,7 +12889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>11466365633</v>
       </c>
@@ -12944,7 +12954,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>11466382437</v>
       </c>
@@ -13009,7 +13019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>11466384232</v>
       </c>
@@ -13074,7 +13084,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>11466385019</v>
       </c>
@@ -13139,7 +13149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>11466385443</v>
       </c>
@@ -13204,7 +13214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>11466389707</v>
       </c>
@@ -13269,7 +13279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>11466414507</v>
       </c>
@@ -13334,7 +13344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>11466414342</v>
       </c>
@@ -13399,7 +13409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>11466427870</v>
       </c>
@@ -13464,7 +13474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>11466436400</v>
       </c>
@@ -13529,7 +13539,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>11466449415</v>
       </c>
@@ -13594,7 +13604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>11466463311</v>
       </c>
@@ -13659,7 +13669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>11466478361</v>
       </c>
@@ -13724,7 +13734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>11466478212</v>
       </c>
@@ -13789,7 +13799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>11466482657</v>
       </c>
@@ -13854,7 +13864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>11466512412</v>
       </c>
@@ -13919,7 +13929,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>11466529474</v>
       </c>
@@ -13984,7 +13994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>11466555125</v>
       </c>
@@ -14049,7 +14059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>11466564634</v>
       </c>
@@ -14114,7 +14124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>11466568950</v>
       </c>
@@ -14179,7 +14189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>11466616931</v>
       </c>
@@ -14244,7 +14254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>11466617605</v>
       </c>
@@ -14309,7 +14319,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>11466629515</v>
       </c>
@@ -14374,7 +14384,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>11466641878</v>
       </c>
@@ -14439,7 +14449,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>11466650178</v>
       </c>
@@ -14504,7 +14514,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>11466650532</v>
       </c>
@@ -14569,7 +14579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>11466660777</v>
       </c>
@@ -14634,7 +14644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>11466666949</v>
       </c>
@@ -14699,7 +14709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>11466670510</v>
       </c>
@@ -14764,7 +14774,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>11466674602</v>
       </c>
@@ -14829,7 +14839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>11466716181</v>
       </c>
@@ -14894,7 +14904,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>11466727643</v>
       </c>
@@ -14959,7 +14969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>11466735089</v>
       </c>
@@ -15024,7 +15034,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>11466733461</v>
       </c>
@@ -15089,7 +15099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>11466751899</v>
       </c>
@@ -15154,7 +15164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>11466751907</v>
       </c>
@@ -15219,7 +15229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>11466759575</v>
       </c>
@@ -15284,7 +15294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>11466760244</v>
       </c>
@@ -15349,7 +15359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>11466762487</v>
       </c>
@@ -15414,7 +15424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>11466766709</v>
       </c>
@@ -15479,7 +15489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>11466770543</v>
       </c>
@@ -15544,7 +15554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>11466776703</v>
       </c>
@@ -15609,7 +15619,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>11466792057</v>
       </c>
@@ -15674,7 +15684,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>11466811992</v>
       </c>
@@ -15739,7 +15749,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>11466892729</v>
       </c>
@@ -15804,7 +15814,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>11466894078</v>
       </c>
@@ -15869,7 +15879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>11466894128</v>
       </c>
@@ -15934,7 +15944,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>11466907894</v>
       </c>
@@ -15999,7 +16009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>11466929314</v>
       </c>
@@ -16064,7 +16074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>11466942760</v>
       </c>
@@ -16129,7 +16139,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>11467061632</v>
       </c>
@@ -16194,7 +16204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>11467034044</v>
       </c>
@@ -16259,7 +16269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>11467095424</v>
       </c>
@@ -16324,7 +16334,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>11467096229</v>
       </c>
@@ -16389,7 +16399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>11467104000</v>
       </c>
@@ -16454,7 +16464,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>11467116477</v>
       </c>
@@ -16519,7 +16529,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>11467123675</v>
       </c>
@@ -16584,7 +16594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>11467146726</v>
       </c>
@@ -16649,7 +16659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>11467154162</v>
       </c>
@@ -16714,7 +16724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>11467163651</v>
       </c>
@@ -16779,7 +16789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>11467172404</v>
       </c>
@@ -16844,7 +16854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>11467175985</v>
       </c>
@@ -16909,7 +16919,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>11467223524</v>
       </c>
@@ -16974,7 +16984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>11467231691</v>
       </c>
@@ -17039,7 +17049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>11467232606</v>
       </c>
@@ -17104,7 +17114,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>11467253340</v>
       </c>
@@ -17169,7 +17179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>11467270962</v>
       </c>
@@ -17234,7 +17244,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>11467284480</v>
       </c>
@@ -17299,7 +17309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>11467354822</v>
       </c>
@@ -17364,7 +17374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>11467386380</v>
       </c>
@@ -17429,7 +17439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>11467418435</v>
       </c>
@@ -17494,7 +17504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>11467507270</v>
       </c>
@@ -17559,7 +17569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>11467533293</v>
       </c>
@@ -17624,7 +17634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>11467542034</v>
       </c>
@@ -17689,7 +17699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>11467600612</v>
       </c>
@@ -17754,7 +17764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>11467609685</v>
       </c>
@@ -17819,7 +17829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>11467610597</v>
       </c>
@@ -17884,7 +17894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>11467614495</v>
       </c>
@@ -17949,7 +17959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>11467630908</v>
       </c>
@@ -18014,7 +18024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>11467647573</v>
       </c>
@@ -18079,7 +18089,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>11467655414</v>
       </c>
@@ -18144,7 +18154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>11467684168</v>
       </c>
@@ -18209,7 +18219,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>11467693017</v>
       </c>
@@ -18274,7 +18284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>11467698022</v>
       </c>
@@ -18339,7 +18349,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>11467700272</v>
       </c>
@@ -18404,7 +18414,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>11467718895</v>
       </c>
@@ -18469,7 +18479,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>11467731237</v>
       </c>
@@ -18534,7 +18544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>11467736354</v>
       </c>
@@ -18599,7 +18609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>11467741436</v>
       </c>
@@ -18664,7 +18674,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>11467754840</v>
       </c>
@@ -18729,7 +18739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>11467762643</v>
       </c>
@@ -18794,7 +18804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>11467776611</v>
       </c>
@@ -18859,7 +18869,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>11467797347</v>
       </c>
@@ -18924,7 +18934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>11467813069</v>
       </c>
@@ -18989,7 +18999,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>11467810397</v>
       </c>
@@ -19054,7 +19064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>11467815797</v>
       </c>
@@ -19119,7 +19129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>11467816096</v>
       </c>
@@ -19184,7 +19194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>11467818866</v>
       </c>
@@ -19249,7 +19259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>11467821212</v>
       </c>
@@ -19314,7 +19324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>11467826048</v>
       </c>
@@ -19379,7 +19389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>11467832099</v>
       </c>
@@ -19444,7 +19454,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>11467835396</v>
       </c>
@@ -19509,7 +19519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>11467836829</v>
       </c>
@@ -19574,7 +19584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>11467843594</v>
       </c>
@@ -19639,7 +19649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>11467847545</v>
       </c>
@@ -19704,7 +19714,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>11467868992</v>
       </c>
@@ -19769,7 +19779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>11467881207</v>
       </c>
@@ -19834,7 +19844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>11467882613</v>
       </c>
@@ -19899,7 +19909,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>11467887833</v>
       </c>
@@ -19964,7 +19974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>11467915004</v>
       </c>
@@ -20029,7 +20039,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>11467912910</v>
       </c>
@@ -20094,7 +20104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>11467931538</v>
       </c>
@@ -20159,7 +20169,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>11467946093</v>
       </c>
@@ -20224,7 +20234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>11467969853</v>
       </c>
@@ -20289,7 +20299,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>11468015614</v>
       </c>
@@ -20354,7 +20364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>11468019682</v>
       </c>
@@ -20419,7 +20429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>11468022785</v>
       </c>
@@ -20484,7 +20494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>11468027747</v>
       </c>
@@ -20549,7 +20559,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>11468028782</v>
       </c>
@@ -20614,7 +20624,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>11468055846</v>
       </c>
@@ -20679,7 +20689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>11468056735</v>
       </c>
@@ -20744,7 +20754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>11468057474</v>
       </c>
@@ -20809,7 +20819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>11468059677</v>
       </c>
@@ -20874,7 +20884,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>11468173786</v>
       </c>
@@ -20939,7 +20949,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>11468184123</v>
       </c>
@@ -21004,7 +21014,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>11468185626</v>
       </c>
@@ -21069,7 +21079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>11468374117</v>
       </c>
@@ -21134,7 +21144,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>11468377911</v>
       </c>
@@ -21199,7 +21209,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>11468475455</v>
       </c>
@@ -21264,7 +21274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>11468730386</v>
       </c>
@@ -21329,7 +21339,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>11468888652</v>
       </c>
@@ -21394,7 +21404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>11468896439</v>
       </c>
@@ -21459,7 +21469,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>11468921970</v>
       </c>
@@ -21524,7 +21534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>11468987602</v>
       </c>
@@ -21589,7 +21599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>11469000483</v>
       </c>
@@ -21654,7 +21664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>11469181501</v>
       </c>
@@ -21719,7 +21729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>11469248557</v>
       </c>
@@ -21784,7 +21794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>11469268058</v>
       </c>
@@ -21849,7 +21859,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>11469274160</v>
       </c>
@@ -21914,7 +21924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>11473691848</v>
       </c>
@@ -21979,7 +21989,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>11469332745</v>
       </c>
@@ -22044,7 +22054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>11469392010</v>
       </c>
@@ -22109,7 +22119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>11469446529</v>
       </c>
@@ -22174,7 +22184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>11469475702</v>
       </c>
@@ -22239,7 +22249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>11469555412</v>
       </c>
@@ -22304,7 +22314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>11469590973</v>
       </c>
@@ -22369,7 +22379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>11469650520</v>
       </c>
@@ -22434,7 +22444,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>11469693292</v>
       </c>
@@ -22499,7 +22509,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>11469738774</v>
       </c>
@@ -22564,7 +22574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>11469772036</v>
       </c>
@@ -22629,7 +22639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>11469811230</v>
       </c>
@@ -22694,7 +22704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>11469887805</v>
       </c>
@@ -22759,7 +22769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>11470017116</v>
       </c>
@@ -22824,7 +22834,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>11470080756</v>
       </c>
@@ -22889,7 +22899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>11470096321</v>
       </c>
@@ -22954,7 +22964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>11470272700</v>
       </c>
@@ -23019,7 +23029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>11470299334</v>
       </c>
@@ -23084,7 +23094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>11470306877</v>
       </c>
@@ -23149,7 +23159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>11470325370</v>
       </c>
@@ -23214,7 +23224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>11470326838</v>
       </c>
@@ -23279,7 +23289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>11470385772</v>
       </c>
@@ -23344,7 +23354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>11470533950</v>
       </c>
@@ -23409,7 +23419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>11470604856</v>
       </c>
@@ -23474,7 +23484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>11470664642</v>
       </c>
@@ -23539,7 +23549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>11470695754</v>
       </c>
@@ -23604,7 +23614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>11470730240</v>
       </c>
@@ -23669,7 +23679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>11470755683</v>
       </c>
@@ -23734,7 +23744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>11470776164</v>
       </c>
@@ -23799,7 +23809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>11470782849</v>
       </c>
@@ -23864,7 +23874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>11470887090</v>
       </c>
@@ -23929,7 +23939,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>11470961293</v>
       </c>
@@ -23994,7 +24004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>11470967219</v>
       </c>
@@ -24059,7 +24069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>11471071354</v>
       </c>
@@ -24124,7 +24134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>11471180566</v>
       </c>
@@ -24189,7 +24199,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>11471183585</v>
       </c>
@@ -24254,7 +24264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>11471229557</v>
       </c>
@@ -24319,7 +24329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>11471270059</v>
       </c>
@@ -24384,7 +24394,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>11471321903</v>
       </c>
@@ -24449,7 +24459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>11471368788</v>
       </c>
@@ -24514,7 +24524,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>11471373286</v>
       </c>
@@ -24579,7 +24589,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>11471403989</v>
       </c>
@@ -24644,7 +24654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>11471419094</v>
       </c>
@@ -24709,7 +24719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>11471430880</v>
       </c>
@@ -24774,7 +24784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>11471536258</v>
       </c>
@@ -24839,7 +24849,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>11471584928</v>
       </c>
@@ -24904,7 +24914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>11471588898</v>
       </c>
@@ -24969,7 +24979,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>11471595633</v>
       </c>
@@ -25034,7 +25044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>11471595334</v>
       </c>
@@ -25099,7 +25109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>11471602497</v>
       </c>
@@ -25164,7 +25174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>11471622327</v>
       </c>
@@ -25229,7 +25239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>11471643840</v>
       </c>
@@ -25294,7 +25304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>11471648577</v>
       </c>
@@ -25359,7 +25369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>11471650724</v>
       </c>
@@ -25424,7 +25434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>11471662112</v>
       </c>
@@ -25489,7 +25499,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>11471664506</v>
       </c>
@@ -25554,7 +25564,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>11471667332</v>
       </c>
@@ -25619,7 +25629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>11471671129</v>
       </c>
@@ -25684,7 +25694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>11471683008</v>
       </c>
@@ -25749,7 +25759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>11471717433</v>
       </c>
@@ -25814,7 +25824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>11471783639</v>
       </c>
@@ -25879,7 +25889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>11471883878</v>
       </c>
@@ -25944,7 +25954,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>11471884231</v>
       </c>
@@ -26009,7 +26019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>11471980053</v>
       </c>
@@ -26074,7 +26084,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>11472739335</v>
       </c>
@@ -26139,7 +26149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>11472827048</v>
       </c>
@@ -26204,7 +26214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>11472887040</v>
       </c>
@@ -26269,7 +26279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>11473068653</v>
       </c>
@@ -26334,7 +26344,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>11473123055</v>
       </c>
@@ -26399,7 +26409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>11473168034</v>
       </c>
@@ -26464,7 +26474,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>11473202368</v>
       </c>
@@ -26529,7 +26539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>11473214039</v>
       </c>
@@ -26594,7 +26604,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>11473312190</v>
       </c>
@@ -26659,7 +26669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>11473337556</v>
       </c>
@@ -26724,7 +26734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>11473434290</v>
       </c>
@@ -26789,7 +26799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>11473684483</v>
       </c>
@@ -26854,7 +26864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>11473719144</v>
       </c>
@@ -26919,7 +26929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>11473826145</v>
       </c>
@@ -26984,7 +26994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>11474000078</v>
       </c>
@@ -27049,7 +27059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>11474374732</v>
       </c>
@@ -27114,7 +27124,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>11474758516</v>
       </c>
@@ -27179,7 +27189,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>11475322941</v>
       </c>
@@ -27244,7 +27254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>11476055227</v>
       </c>
@@ -27309,7 +27319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>11476109878</v>
       </c>
@@ -27374,7 +27384,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>11476130971</v>
       </c>
@@ -27439,7 +27449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>11476195152</v>
       </c>
@@ -27504,7 +27514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>11476538825</v>
       </c>
@@ -27569,7 +27579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>11476709394</v>
       </c>
@@ -27634,7 +27644,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>11476929162</v>
       </c>
@@ -27699,7 +27709,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>11477084777</v>
       </c>
@@ -27764,7 +27774,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>11477094907</v>
       </c>
@@ -27829,7 +27839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>11477221819</v>
       </c>
@@ -27894,7 +27904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>11477538254</v>
       </c>
@@ -27959,7 +27969,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>11477742320</v>
       </c>
@@ -28024,7 +28034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>11477820313</v>
       </c>
@@ -28089,7 +28099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>11477913522</v>
       </c>
@@ -28154,7 +28164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>11478461101</v>
       </c>
@@ -28219,7 +28229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>11478785073</v>
       </c>
@@ -28284,7 +28294,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>11479853965</v>
       </c>
@@ -28349,7 +28359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>11480004060</v>
       </c>
@@ -28414,7 +28424,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>11480172045</v>
       </c>
@@ -28479,7 +28489,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>11480476892</v>
       </c>
@@ -28544,7 +28554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>11480472205</v>
       </c>
@@ -28609,7 +28619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>11480481197</v>
       </c>
@@ -28674,7 +28684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>11480482512</v>
       </c>
@@ -28739,7 +28749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>11480879848</v>
       </c>
@@ -28804,7 +28814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>11481197184</v>
       </c>
@@ -28869,7 +28879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>11481298745</v>
       </c>
@@ -28934,7 +28944,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>11481825690</v>
       </c>
@@ -28999,7 +29009,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>11483160963</v>
       </c>
@@ -29064,7 +29074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>11484906123</v>
       </c>
@@ -29129,7 +29139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>11485460652</v>
       </c>
@@ -29194,7 +29204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>11486480185</v>
       </c>
@@ -29259,7 +29269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>11487174870</v>
       </c>
@@ -29324,7 +29334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>11487702121</v>
       </c>
@@ -29389,7 +29399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>11487981801</v>
       </c>
@@ -29454,7 +29464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>11488220188</v>
       </c>
@@ -29519,7 +29529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>11490157797</v>
       </c>
@@ -29584,7 +29594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>11490304931</v>
       </c>
@@ -29649,7 +29659,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>11490334231</v>
       </c>
@@ -29714,7 +29724,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>11490359033</v>
       </c>
@@ -29779,7 +29789,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>11490385339</v>
       </c>
@@ -29844,7 +29854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>11492279081</v>
       </c>
@@ -29909,7 +29919,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>11494206718</v>
       </c>
@@ -29974,7 +29984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>11496407885</v>
       </c>
@@ -30039,7 +30049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>11496907320</v>
       </c>
@@ -30104,7 +30114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>11496996656</v>
       </c>
@@ -30169,7 +30179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>11497323211</v>
       </c>
@@ -30234,7 +30244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>11498656435</v>
       </c>
@@ -30299,7 +30309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>11498708783</v>
       </c>
@@ -30364,7 +30374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>11498755070</v>
       </c>
@@ -30429,7 +30439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>11499362462</v>
       </c>
@@ -30494,7 +30504,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>11499520427</v>
       </c>
@@ -30559,7 +30569,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>11500085906</v>
       </c>
@@ -30624,7 +30634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>11500282496</v>
       </c>
@@ -30689,7 +30699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>11503141908</v>
       </c>
@@ -30754,7 +30764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>11503142571</v>
       </c>
@@ -30819,7 +30829,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>11513044509</v>
       </c>
@@ -30884,7 +30894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>11513316125</v>
       </c>
@@ -30949,7 +30959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>11513667301</v>
       </c>
@@ -31014,7 +31024,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>11513750307</v>
       </c>
@@ -31079,7 +31089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>11513936581</v>
       </c>
@@ -31144,7 +31154,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>11514441146</v>
       </c>
@@ -31209,7 +31219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>11518237980</v>
       </c>
@@ -31274,7 +31284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>11519913853</v>
       </c>
@@ -31339,7 +31349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>11519973856</v>
       </c>
@@ -31404,7 +31414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>11520059698</v>
       </c>
@@ -31469,7 +31479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>11520072159</v>
       </c>
@@ -31534,7 +31544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>11520219102</v>
       </c>
@@ -31599,7 +31609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>11520500574</v>
       </c>
@@ -31664,7 +31674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>11520502263</v>
       </c>
@@ -31729,7 +31739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>11520517532</v>
       </c>
@@ -31794,7 +31804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>11520848574</v>
       </c>
@@ -31859,7 +31869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>11521644734</v>
       </c>
@@ -31924,7 +31934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>11521691640</v>
       </c>
@@ -31989,7 +31999,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>11521695240</v>
       </c>
@@ -32054,7 +32064,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>11521865889</v>
       </c>
@@ -32119,7 +32129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>11521976824</v>
       </c>
@@ -32184,7 +32194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>11522262326</v>
       </c>
@@ -32249,7 +32259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>11522295831</v>
       </c>
@@ -32314,7 +32324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>11522426288</v>
       </c>
@@ -32379,7 +32389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>11522429018</v>
       </c>
@@ -32444,7 +32454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>11522617323</v>
       </c>
@@ -32509,7 +32519,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>11523588583</v>
       </c>
@@ -32574,7 +32584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>11523651620</v>
       </c>
@@ -32639,7 +32649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>11523730380</v>
       </c>
@@ -32704,7 +32714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>11524569349</v>
       </c>
@@ -32769,7 +32779,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>11525731983</v>
       </c>
@@ -32834,7 +32844,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>11526400319</v>
       </c>
@@ -32899,7 +32909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>11530927401</v>
       </c>
@@ -32964,7 +32974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>11531874158</v>
       </c>
@@ -33029,7 +33039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>11542009435</v>
       </c>
@@ -33094,7 +33104,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="481" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>11566377582</v>
       </c>
@@ -33164,6 +33174,192 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D3BB38-AAAB-4E8A-8D4C-C8244B9578E7}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45.81640625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
